--- a/trajectory_data.xlsx
+++ b/trajectory_data.xlsx
@@ -1,41 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\trackContinue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF7EF4E-1D33-47A7-ACFA-CBE312807278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="轨迹数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="轨迹数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+  <si>
+    <t>测试组</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>id1开始时间</t>
+  </si>
+  <si>
+    <t>id1结束时间</t>
+  </si>
+  <si>
+    <t>轨迹间隔时间（分钟）</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>id2开始时间</t>
+  </si>
+  <si>
+    <t>id2结束时间</t>
+  </si>
+  <si>
+    <t>样本值</t>
+  </si>
+  <si>
+    <t>程序预测结果</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>1965439080288260096</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:25:53</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:36:14</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:49:23</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:59:53</t>
+  </si>
+  <si>
+    <t>正</t>
+  </si>
+  <si>
+    <t>[[{'id': 1965439080288260096, 'longitude': '114.197138', 'latitude': '-32.43285', 'speed': 11.3, 'course': 167.5, 'len': 254.0, 'lastTm': 1757669153000}, {'id': 1965439080288260096, 'longitude': '114.198075', 'latitude': '-32.436437', 'speed': 11.3, 'course': 168.7, 'len': 254.0, 'lastTm': 1757669223000}, {'id': 1965439080288260096, 'longitude': '114.198877', 'latitude': '-32.439993', 'speed': 11.3, 'course': 169.3, 'len': 254.0, 'lastTm': 1757669293000}, {'id': 1965439080288260096, 'longitude': '114.19974', 'latitude': '-32.443657', 'speed': 11.4, 'course': 168.6, 'len': 254.0, 'lastTm': 1757669363000}, {'id': 1965439080288260096, 'longitude': '114.200618', 'latitude': '-32.447322', 'speed': 11.4, 'course': 168.0, 'len': 254.0, 'lastTm': 1757669434000}, {'id': 1965439080288260096, 'longitude': '114.201437', 'latitude': '-32.450898', 'speed': 11.4, 'course': 169.7, 'len': 254.0, 'lastTm': 1757669503000}, {'id': 1965439080288260096, 'longitude': '114.202093', 'latitude': '-32.454543', 'speed': 11.4, 'course': 172.7, 'len': 254.0, 'lastTm': 1757669573000}, {'id': 1965439080288260096, 'longitude': '114.202507', 'latitude': '-32.457775', 'speed': 11.5, 'course': 173.7, 'len': 254.0, 'lastTm': 1757669634000}, {'id': 1965439080288260096, 'longitude': '114.20288', 'latitude': '-32.461448', 'speed': 11.7, 'course': 174.5, 'len': 254.0, 'lastTm': 1757669704000}, {'id': 1965439080288260096, 'longitude': '114.203292', 'latitude': '-32.465312', 'speed': 11.8, 'course': 174.0, 'len': 254.0, 'lastTm': 1757669774000}], [{'id': 1965439080288260096, 'longitude': '114.209452', 'latitude': '-32.510287', 'speed': 12.5, 'course': 172.9, 'len': 254.0, 'lastTm': 1757670563000}, {'id': 1965439080288260096, 'longitude': '114.21003', 'latitude': '-32.51444', 'speed': 12.6, 'course': 173.8, 'len': 254.0, 'lastTm': 1757670634000}, {'id': 1965439080288260096, 'longitude': '114.21056', 'latitude': '-32.518453', 'speed': 12.6, 'course': 173.5, 'len': 254.0, 'lastTm': 1757670704000}, {'id': 1965439080288260096, 'longitude': '114.21108', 'latitude': '-32.522507', 'speed': 12.7, 'course': 173.8, 'len': 254.0, 'lastTm': 1757670774000}, {'id': 1965439080288260096, 'longitude': '114.211602', 'latitude': '-32.526538', 'speed': 12.7, 'course': 173.6, 'len': 254.0, 'lastTm': 1757670842000}, {'id': 1965439080288260096, 'longitude': '114.2122', 'latitude': '-32.530627', 'speed': 12.7, 'course': 172.6, 'len': 254.0, 'lastTm': 1757670913000}, {'id': 1965439080288260096, 'longitude': '114.212822', 'latitude': '-32.534712', 'speed': 12.7, 'course': 172.1, 'len': 254.0, 'lastTm': 1757670983000}, {'id': 1965439080288260096, 'longitude': '114.213435', 'latitude': '-32.538857', 'speed': 12.7, 'course': 172.7, 'len': 254.0, 'lastTm': 1757671053000}, {'id': 1965439080288260096, 'longitude': '114.214055', 'latitude': '-32.542943', 'speed': 12.7, 'course': 172.7, 'len': 254.0, 'lastTm': 1757671124000}, {'id': 1965439080288260096, 'longitude': '114.214667', 'latitude': '-32.546965', 'speed': 12.7, 'course': 172.8, 'len': 254.0, 'lastTm': 1757671193000}]]</t>
+  </si>
+  <si>
+    <t>1966310271244828672</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:26:52</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:36:50</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:48:53</t>
+  </si>
+  <si>
+    <t>[[{'id': 1966310271244828672, 'longitude': '-90.207823', 'latitude': '29.119963', 'speed': 0.0, 'course': 261.0, 'len': 70.0, 'lastTm': 1757669212000}, {'id': 1966310271244828672, 'longitude': '-90.207802', 'latitude': '29.119973', 'speed': 0.3, 'course': 63.9, 'len': 70.0, 'lastTm': 1757669273000}, {'id': 1966310271244828672, 'longitude': '-90.207647', 'latitude': '29.120062', 'speed': 0.5, 'course': 35.4, 'len': 70.0, 'lastTm': 1757669342000}, {'id': 1966310271244828672, 'longitude': '-90.207723', 'latitude': '29.120655', 'speed': 2.7, 'course': 348.2, 'len': 70.0, 'lastTm': 1757669413000}, {'id': 1966310271244828672, 'longitude': '-90.208017', 'latitude': '29.121573', 'speed': 3.8, 'course': 342.3, 'len': 70.0, 'lastTm': 1757669474000}, {'id': 1966310271244828672, 'longitude': '-90.208705', 'latitude': '29.122307', 'speed': 2.7, 'course': 290.3, 'len': 70.0, 'lastTm': 1757669540000}, {'id': 1966310271244828672, 'longitude': '-90.209568', 'latitude': '29.122227', 'speed': 3.0, 'course': 253.8, 'len': 70.0, 'lastTm': 1757669603000}, {'id': 1966310271244828672, 'longitude': '-90.210783', 'latitude': '29.121685', 'speed': 4.0, 'course': 239.5, 'len': 70.0, 'lastTm': 1757669674000}, {'id': 1966310271244828672, 'longitude': '-90.212087', 'latitude': '29.120933', 'speed': 4.5, 'course': 233.9, 'len': 70.0, 'lastTm': 1757669742000}, {'id': 1966310271244828672, 'longitude': '-90.212968', 'latitude': '29.119903', 'speed': 3.7, 'course': 180.2, 'len': 70.0, 'lastTm': 1757669810000}], [{'id': 1966310271244828672, 'longitude': '-90.209457', 'latitude': '29.115307', 'speed': 0.1, 'course': 132.5, 'len': 70.0, 'lastTm': 1757670533000}, {'id': 1966310271244828672, 'longitude': '-90.209452', 'latitude': '29.115315', 'speed': 0.1, 'course': 181.2, 'len': 70.0, 'lastTm': 1757670603000}, {'id': 1966310271244828672, 'longitude': '-90.209438', 'latitude': '29.11529', 'speed': 0.1, 'course': 191.9, 'len': 70.0, 'lastTm': 1757670673000}, {'id': 1966310271244828672, 'longitude': '-90.209437', 'latitude': '29.115263', 'speed': 0.2, 'course': 189.1, 'len': 70.0, 'lastTm': 1757670734000}, {'id': 1966310271244828672, 'longitude': '-90.20946', 'latitude': '29.115207', 'speed': 0.4, 'course': 225.7, 'len': 70.0, 'lastTm': 1757670802000}, {'id': 1966310271244828672, 'longitude': '-90.20948', 'latitude': '29.11519', 'speed': 0.4, 'course': 46.4, 'len': 70.0, 'lastTm': 1757670874000}, {'id': 1966310271244828672, 'longitude': '-90.209443', 'latitude': '29.115228', 'speed': 0.2, 'course': 349.3, 'len': 70.0, 'lastTm': 1757670944000}, {'id': 1966310271244828672, 'longitude': '-90.209423', 'latitude': '29.115245', 'speed': 0.0, 'course': 46.1, 'len': 70.0, 'lastTm': 1757671012000}, {'id': 1966310271244828672, 'longitude': '-90.209415', 'latitude': '29.11526', 'speed': 0.0, 'course': 19.4, 'len': 70.0, 'lastTm': 1757671073000}, {'id': 1966310271244828672, 'longitude': '-90.209418', 'latitude': '29.115257', 'speed': 0.0, 'course': 19.3, 'len': 70.0, 'lastTm': 1757671193000}]]</t>
+  </si>
+  <si>
+    <t>1966400838767243264</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:24:34</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:35:04</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:49:05</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:59:54</t>
+  </si>
+  <si>
+    <t>[[{'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564728', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669074000}, {'id': 1966400838767243264, 'longitude': '95.295247', 'latitude': '5.564718', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669145000}, {'id': 1966400838767243264, 'longitude': '95.29528', 'latitude': '5.564713', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669214000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564738', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669286000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564732', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669354000}, {'id': 1966400838767243264, 'longitude': '95.295233', 'latitude': '5.564748', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669424000}, {'id': 1966400838767243264, 'longitude': '95.295233', 'latitude': '5.564753', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669495000}, {'id': 1966400838767243264, 'longitude': '95.295247', 'latitude': '5.56473', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669564000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564722', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669634000}, {'id': 1966400838767243264, 'longitude': '95.295247', 'latitude': '5.564725', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757669704000}], [{'id': 1966400838767243264, 'longitude': '95.295247', 'latitude': '5.56475', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670545000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564747', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670614000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564745', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670684000}, {'id': 1966400838767243264, 'longitude': '95.295233', 'latitude': '5.564747', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670755000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564742', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670825000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564742', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670894000}, {'id': 1966400838767243264, 'longitude': '95.295247', 'latitude': '5.564723', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757670965000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564713', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757671044000}, {'id': 1966400838767243264, 'longitude': '95.295267', 'latitude': '5.564732', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757671124000}, {'id': 1966400838767243264, 'longitude': '95.295247', 'latitude': '5.564748', 'speed': 0.0, 'course': 186.7, 'len': 64.0, 'lastTm': 1757671194000}]]</t>
+  </si>
+  <si>
+    <t>1955314761344253952</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:24:55</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:35:26</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:49:35</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:59:55</t>
+  </si>
+  <si>
+    <t>[[{'id': 1955314761344253952, 'longitude': '118.729123', 'latitude': '23.906967', 'speed': 10.5, 'course': 54.6, 'len': 299.0, 'lastTm': 1757669095000}, {'id': 1955314761344253952, 'longitude': '118.732152', 'latitude': '23.908923', 'speed': 10.5, 'course': 54.6, 'len': 299.0, 'lastTm': 1757669165000}, {'id': 1955314761344253952, 'longitude': '118.735177', 'latitude': '23.910895', 'speed': 10.4, 'course': 54.8, 'len': 299.0, 'lastTm': 1757669235000}, {'id': 1955314761344253952, 'longitude': '118.738245', 'latitude': '23.912863', 'speed': 10.4, 'course': 54.9, 'len': 299.0, 'lastTm': 1757669305000}, {'id': 1955314761344253952, 'longitude': '118.741288', 'latitude': '23.914847', 'speed': 10.4, 'course': 54.4, 'len': 299.0, 'lastTm': 1757669375000}, {'id': 1955314761344253952, 'longitude': '118.744303', 'latitude': '23.916892', 'speed': 10.4, 'course': 54.0, 'len': 299.0, 'lastTm': 1757669446000}, {'id': 1955314761344253952, 'longitude': '118.747237', 'latitude': '23.918907', 'speed': 10.3, 'course': 53.6, 'len': 299.0, 'lastTm': 1757669516000}, {'id': 1955314761344253952, 'longitude': '118.750235', 'latitude': '23.920908', 'speed': 10.4, 'course': 53.6, 'len': 299.0, 'lastTm': 1757669586000}, {'id': 1955314761344253952, 'longitude': '118.753167', 'latitude': '23.922905', 'speed': 10.4, 'course': 53.5, 'len': 299.0, 'lastTm': 1757669655000}, {'id': 1955314761344253952, 'longitude': '118.756172', 'latitude': '23.924947', 'speed': 10.4, 'course': 53.4, 'len': 299.0, 'lastTm': 1757669726000}], [{'id': 1955314761344253952, 'longitude': '118.79481', 'latitude': '23.95514', 'speed': 12.1, 'course': 51.6, 'len': 299.0, 'lastTm': 1757670575000}, {'id': 1955314761344253952, 'longitude': '118.798088', 'latitude': '23.957523', 'speed': 11.7, 'course': 51.6, 'len': 299.0, 'lastTm': 1757670644000}, {'id': 1955314761344253952, 'longitude': '118.801252', 'latitude': '23.959827', 'speed': 11.3, 'course': 51.8, 'len': 299.0, 'lastTm': 1757670714000}, {'id': 1955314761344253952, 'longitude': '118.804383', 'latitude': '23.962088', 'speed': 11.1, 'course': 51.8, 'len': 299.0, 'lastTm': 1757670784000}, {'id': 1955314761344253952, 'longitude': '118.807045', 'latitude': '23.964002', 'speed': 11.0, 'course': 51.5, 'len': 299.0, 'lastTm': 1757670845000}, {'id': 1955314761344253952, 'longitude': '118.810083', 'latitude': '23.966217', 'speed': 10.9, 'course': 51.7, 'len': 299.0, 'lastTm': 1757670914000}, {'id': 1955314761344253952, 'longitude': '118.813173', 'latitude': '23.968458', 'speed': 10.7, 'course': 51.6, 'len': 299.0, 'lastTm': 1757670985000}, {'id': 1955314761344253952, 'longitude': '118.816167', 'latitude': '23.970572', 'speed': 10.7, 'course': 52.7, 'len': 299.0, 'lastTm': 1757671055000}, {'id': 1955314761344253952, 'longitude': '118.819212', 'latitude': '23.972673', 'speed': 10.7, 'course': 53.5, 'len': 299.0, 'lastTm': 1757671125000}, {'id': 1955314761344253952, 'longitude': '118.822325', 'latitude': '23.97478', 'speed': 10.6, 'course': 53.8, 'len': 299.0, 'lastTm': 1757671195000}]]</t>
+  </si>
+  <si>
+    <t>1965999880195289088</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:23:01</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:34:15</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:47:45</t>
+  </si>
+  <si>
+    <t>2025-09-12 17:59:45</t>
+  </si>
+  <si>
+    <t>[[{'id': 1965999880195289088, 'longitude': '108.005715', 'latitude': '30.24466', 'speed': 12.1, 'course': 353.8, 'len': 104.0, 'lastTm': 1757668981000}, {'id': 1965999880195289088, 'longitude': '108.005547', 'latitude': '30.248847', 'speed': 12.2, 'course': 3.3, 'len': 104.0, 'lastTm': 1757669055000}, {'id': 1965999880195289088, 'longitude': '108.005313', 'latitude': '30.253917', 'speed': 12.2, 'course': 356.5, 'len': 104.0, 'lastTm': 1757669144000}, {'id': 1965999880195289088, 'longitude': '108.005208', 'latitude': '30.257357', 'speed': 12.4, 'course': 359.0, 'len': 105.0, 'lastTm': 1757669205000}, {'id': 1965999880195289088, 'longitude': '108.005342', 'latitude': '30.261048', 'speed': 12.4, 'course': 4.6, 'len': 105.0, 'lastTm': 1757669269000}, {'id': 1965999880195289088, 'longitude': '108.006007', 'latitude': '30.2648', 'speed': 12.3, 'course': 12.4, 'len': 104.0, 'lastTm': 1757669335000}, {'id': 1965999880195289088, 'longitude': '108.007382', 'latitude': '30.26815', 'speed': 12.2, 'course': 23.0, 'len': 104.0, 'lastTm': 1757669397000}, {'id': 1965999880195289088, 'longitude': '108.009993', 'latitude': '30.271937', 'speed': 12.1, 'course': 38.3, 'len': 104.0, 'lastTm': 1757669475000}, {'id': 1965999880195289088, 'longitude': '108.014233', 'latitude': '30.275413', 'speed': 12.0, 'course': 56.9, 'len': 105.0, 'lastTm': 1757669565000}, {'id': 1965999880195289088, 'longitude': '108.019333', 'latitude': '30.2779', 'speed': 12.1, 'course': 63.0, 'len': 105.0, 'lastTm': 1757669655000}], [{'id': 1965999880195289088, 'longitude': '108.051873', 'latitude': '30.305773', 'speed': 10.8, 'course': 6.2, 'len': 105.0, 'lastTm': 1757670465000}, {'id': 1965999880195289088, 'longitude': '108.051747', 'latitude': '30.308432', 'speed': 6.1, 'course': 335.8, 'len': 104.0, 'lastTm': 1757670529000}, {'id': 1965999880195289088, 'longitude': '108.050917', 'latitude': '30.309268', 'speed': 2.1, 'course': 302.5, 'len': 104.0, 'lastTm': 1757670593000}, {'id': 1965999880195289088, 'longitude': '108.050203', 'latitude': '30.309385', 'speed': 2.5, 'course': 264.5, 'len': 104.0, 'lastTm': 1757670656000}, {'id': 1965999880195289088, 'longitude': '108.049452', 'latitude': '30.308937', 'speed': 2.8, 'course': 219.7, 'len': 104.0, 'lastTm': 1757670721000}, {'id': 1965999880195289088, 'longitude': '108.048888', 'latitude': '30.308188', 'speed': 2.7, 'course': 208.1, 'len': 104.0, 'lastTm': 1757670785000}, {'id': 1965999880195289088, 'longitude': '108.04836', 'latitude': '30.3074', 'speed': 1.2, 'course': 210.5, 'len': 104.0, 'lastTm': 1757670876000}, {'id': 1965999880195289088, 'longitude': '108.04832', 'latitude': '30.307353', 'speed': 0.3, 'course': 211.1, 'len': 104.0, 'lastTm': 1757671005000}, {'id': 1965999880195289088, 'longitude': '108.048298', 'latitude': '30.307338', 'speed': 0.0, 'course': 211.0, 'len': 104.0, 'lastTm': 1757671096000}, {'id': 1965999880195289088, 'longitude': '108.04802', 'latitude': '30.307183', 'speed': 0.0, 'course': 211.1, 'len': 104.0, 'lastTm': 1757671185000}]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,82 +191,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,172 +495,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="19.625" customWidth="1" min="5" max="5"/>
-    <col width="19.375" customWidth="1" min="6" max="6"/>
-    <col width="30.625" customWidth="1" min="8" max="8"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>len</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lastTm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>data_json</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4.365502</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>51.998905</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>1757669614000</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>{"longitude": 4.365502, "latitude": 51.998905, "speed": 0.0, "course": 0.0, "len": 30.0, "lastTm": 1757669614000, "id": 1962525724627697664}</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>1962525724627697664</t>
-        </is>
-      </c>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>3.22491</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>51.222382</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>324.5</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>1757669614000</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>{"longitude": 3.22491, "latitude": 51.222382, "speed": 0.0, "course": 324.5, "len": 85.0, "lastTm": 1757669614000, "id": 1965724474112229376}</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>1965724474112229376</t>
-        </is>
-      </c>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="10">
-      <c r="H10" s="2" t="n"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>